--- a/public/imported_files/Resumo de Naturezas de Despesa.xlsx
+++ b/public/imported_files/Resumo de Naturezas de Despesa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\seo-v0.7\public\imported_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Sistema Eletrônico Orçamentário\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846DFD6-7D36-48BC-8DEE-EEF55C57BEAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{895428F9-8C89-4626-8696-98796F41B694}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{39DF7B26-6385-474D-B725-22A2C5B27CA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,20 +381,20 @@
     <t>SERVIÇOS DE TECNOLOGIA DA INFORMAÇÃO E COMUNICAÇÃO - PJ</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>especificacao</t>
-  </si>
-  <si>
-    <t>código</t>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>ESPECIFICACAO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +420,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -442,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,6 +460,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -796,7 +808,7 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -808,14 +820,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
